--- a/INTLINE/data/193/ABS/5368031.xlsx
+++ b/INTLINE/data/193/ABS/5368031.xlsx
@@ -12,68 +12,68 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A1829264V">Data1!$B$1:$B$10,Data1!$B$11:$B$419</definedName>
-    <definedName name="A1829264V_Data">Data1!$B$11:$B$419</definedName>
-    <definedName name="A1829264V_Latest">Data1!$B$419</definedName>
-    <definedName name="A1829265W">Data1!$C$1:$C$10,Data1!$C$11:$C$419</definedName>
-    <definedName name="A1829265W_Data">Data1!$C$11:$C$419</definedName>
-    <definedName name="A1829265W_Latest">Data1!$C$419</definedName>
-    <definedName name="A1829266X">Data1!$D$1:$D$10,Data1!$D$11:$D$419</definedName>
-    <definedName name="A1829266X_Data">Data1!$D$11:$D$419</definedName>
-    <definedName name="A1829266X_Latest">Data1!$D$419</definedName>
-    <definedName name="A1829267A">Data1!$E$1:$E$10,Data1!$E$11:$E$419</definedName>
-    <definedName name="A1829267A_Data">Data1!$E$11:$E$419</definedName>
-    <definedName name="A1829267A_Latest">Data1!$E$419</definedName>
-    <definedName name="A1829268C">Data1!$F$1:$F$10,Data1!$F$11:$F$419</definedName>
-    <definedName name="A1829268C_Data">Data1!$F$11:$F$419</definedName>
-    <definedName name="A1829268C_Latest">Data1!$F$419</definedName>
-    <definedName name="A1829269F">Data1!$G$1:$G$10,Data1!$G$11:$G$419</definedName>
-    <definedName name="A1829269F_Data">Data1!$G$11:$G$419</definedName>
-    <definedName name="A1829269F_Latest">Data1!$G$419</definedName>
-    <definedName name="A1829270R">Data1!$H$1:$H$10,Data1!$H$11:$H$419</definedName>
-    <definedName name="A1829270R_Data">Data1!$H$11:$H$419</definedName>
-    <definedName name="A1829270R_Latest">Data1!$H$419</definedName>
-    <definedName name="A1829271T">Data1!$I$1:$I$10,Data1!$I$11:$I$419</definedName>
-    <definedName name="A1829271T_Data">Data1!$I$11:$I$419</definedName>
-    <definedName name="A1829271T_Latest">Data1!$I$419</definedName>
-    <definedName name="A1829272V">Data1!$J$1:$J$10,Data1!$J$11:$J$419</definedName>
-    <definedName name="A1829272V_Data">Data1!$J$11:$J$419</definedName>
-    <definedName name="A1829272V_Latest">Data1!$J$419</definedName>
-    <definedName name="A1829273W">Data1!$K$1:$K$10,Data1!$K$11:$K$419</definedName>
-    <definedName name="A1829273W_Data">Data1!$K$11:$K$419</definedName>
-    <definedName name="A1829273W_Latest">Data1!$K$419</definedName>
-    <definedName name="A1829274X">Data1!$L$1:$L$10,Data1!$L$11:$L$419</definedName>
-    <definedName name="A1829274X_Data">Data1!$L$11:$L$419</definedName>
-    <definedName name="A1829274X_Latest">Data1!$L$419</definedName>
-    <definedName name="A1829275A">Data1!$M$1:$M$10,Data1!$M$11:$M$419</definedName>
-    <definedName name="A1829275A_Data">Data1!$M$11:$M$419</definedName>
-    <definedName name="A1829275A_Latest">Data1!$M$419</definedName>
-    <definedName name="A1829276C">Data1!$N$1:$N$10,Data1!$N$11:$N$419</definedName>
-    <definedName name="A1829276C_Data">Data1!$N$11:$N$419</definedName>
-    <definedName name="A1829276C_Latest">Data1!$N$419</definedName>
-    <definedName name="A1829277F">Data1!$O$1:$O$10,Data1!$O$11:$O$419</definedName>
-    <definedName name="A1829277F_Data">Data1!$O$11:$O$419</definedName>
-    <definedName name="A1829277F_Latest">Data1!$O$419</definedName>
-    <definedName name="A1829278J">Data1!$P$1:$P$10,Data1!$P$11:$P$419</definedName>
-    <definedName name="A1829278J_Data">Data1!$P$11:$P$419</definedName>
-    <definedName name="A1829278J_Latest">Data1!$P$419</definedName>
-    <definedName name="A1829279K">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1829279K_Data">Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1829279K_Latest">Data1!$Q$419</definedName>
-    <definedName name="A1829280V">Data1!$R$1:$R$10,Data1!$R$11:$R$419</definedName>
-    <definedName name="A1829280V_Data">Data1!$R$11:$R$419</definedName>
-    <definedName name="A1829280V_Latest">Data1!$R$419</definedName>
-    <definedName name="A1829281W">Data1!$S$1:$S$10,Data1!$S$11:$S$419</definedName>
-    <definedName name="A1829281W_Data">Data1!$S$11:$S$419</definedName>
-    <definedName name="A1829281W_Latest">Data1!$S$419</definedName>
-    <definedName name="A1829282X">Data1!$T$1:$T$10,Data1!$T$11:$T$419</definedName>
-    <definedName name="A1829282X_Data">Data1!$T$11:$T$419</definedName>
-    <definedName name="A1829282X_Latest">Data1!$T$419</definedName>
-    <definedName name="A1829284C">Data1!$U$1:$U$10,Data1!$U$11:$U$419</definedName>
-    <definedName name="A1829284C_Data">Data1!$U$11:$U$419</definedName>
-    <definedName name="A1829284C_Latest">Data1!$U$419</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$419</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$419</definedName>
+    <definedName name="A1829264V">Data1!$B$1:$B$10,Data1!$B$11:$B$422</definedName>
+    <definedName name="A1829264V_Data">Data1!$B$11:$B$422</definedName>
+    <definedName name="A1829264V_Latest">Data1!$B$422</definedName>
+    <definedName name="A1829265W">Data1!$C$1:$C$10,Data1!$C$11:$C$422</definedName>
+    <definedName name="A1829265W_Data">Data1!$C$11:$C$422</definedName>
+    <definedName name="A1829265W_Latest">Data1!$C$422</definedName>
+    <definedName name="A1829266X">Data1!$D$1:$D$10,Data1!$D$11:$D$422</definedName>
+    <definedName name="A1829266X_Data">Data1!$D$11:$D$422</definedName>
+    <definedName name="A1829266X_Latest">Data1!$D$422</definedName>
+    <definedName name="A1829267A">Data1!$E$1:$E$10,Data1!$E$11:$E$422</definedName>
+    <definedName name="A1829267A_Data">Data1!$E$11:$E$422</definedName>
+    <definedName name="A1829267A_Latest">Data1!$E$422</definedName>
+    <definedName name="A1829268C">Data1!$F$1:$F$10,Data1!$F$11:$F$422</definedName>
+    <definedName name="A1829268C_Data">Data1!$F$11:$F$422</definedName>
+    <definedName name="A1829268C_Latest">Data1!$F$422</definedName>
+    <definedName name="A1829269F">Data1!$G$1:$G$10,Data1!$G$11:$G$422</definedName>
+    <definedName name="A1829269F_Data">Data1!$G$11:$G$422</definedName>
+    <definedName name="A1829269F_Latest">Data1!$G$422</definedName>
+    <definedName name="A1829270R">Data1!$H$1:$H$10,Data1!$H$11:$H$422</definedName>
+    <definedName name="A1829270R_Data">Data1!$H$11:$H$422</definedName>
+    <definedName name="A1829270R_Latest">Data1!$H$422</definedName>
+    <definedName name="A1829271T">Data1!$I$1:$I$10,Data1!$I$11:$I$422</definedName>
+    <definedName name="A1829271T_Data">Data1!$I$11:$I$422</definedName>
+    <definedName name="A1829271T_Latest">Data1!$I$422</definedName>
+    <definedName name="A1829272V">Data1!$J$1:$J$10,Data1!$J$11:$J$422</definedName>
+    <definedName name="A1829272V_Data">Data1!$J$11:$J$422</definedName>
+    <definedName name="A1829272V_Latest">Data1!$J$422</definedName>
+    <definedName name="A1829273W">Data1!$K$1:$K$10,Data1!$K$11:$K$422</definedName>
+    <definedName name="A1829273W_Data">Data1!$K$11:$K$422</definedName>
+    <definedName name="A1829273W_Latest">Data1!$K$422</definedName>
+    <definedName name="A1829274X">Data1!$L$1:$L$10,Data1!$L$11:$L$422</definedName>
+    <definedName name="A1829274X_Data">Data1!$L$11:$L$422</definedName>
+    <definedName name="A1829274X_Latest">Data1!$L$422</definedName>
+    <definedName name="A1829275A">Data1!$M$1:$M$10,Data1!$M$11:$M$422</definedName>
+    <definedName name="A1829275A_Data">Data1!$M$11:$M$422</definedName>
+    <definedName name="A1829275A_Latest">Data1!$M$422</definedName>
+    <definedName name="A1829276C">Data1!$N$1:$N$10,Data1!$N$11:$N$422</definedName>
+    <definedName name="A1829276C_Data">Data1!$N$11:$N$422</definedName>
+    <definedName name="A1829276C_Latest">Data1!$N$422</definedName>
+    <definedName name="A1829277F">Data1!$O$1:$O$10,Data1!$O$11:$O$422</definedName>
+    <definedName name="A1829277F_Data">Data1!$O$11:$O$422</definedName>
+    <definedName name="A1829277F_Latest">Data1!$O$422</definedName>
+    <definedName name="A1829278J">Data1!$P$1:$P$10,Data1!$P$11:$P$422</definedName>
+    <definedName name="A1829278J_Data">Data1!$P$11:$P$422</definedName>
+    <definedName name="A1829278J_Latest">Data1!$P$422</definedName>
+    <definedName name="A1829279K">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1829279K_Data">Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1829279K_Latest">Data1!$Q$422</definedName>
+    <definedName name="A1829280V">Data1!$R$1:$R$10,Data1!$R$11:$R$422</definedName>
+    <definedName name="A1829280V_Data">Data1!$R$11:$R$422</definedName>
+    <definedName name="A1829280V_Latest">Data1!$R$422</definedName>
+    <definedName name="A1829281W">Data1!$S$1:$S$10,Data1!$S$11:$S$422</definedName>
+    <definedName name="A1829281W_Data">Data1!$S$11:$S$422</definedName>
+    <definedName name="A1829281W_Latest">Data1!$S$422</definedName>
+    <definedName name="A1829282X">Data1!$T$1:$T$10,Data1!$T$11:$T$422</definedName>
+    <definedName name="A1829282X_Data">Data1!$T$11:$T$422</definedName>
+    <definedName name="A1829282X_Latest">Data1!$T$422</definedName>
+    <definedName name="A1829284C">Data1!$U$1:$U$10,Data1!$U$11:$U$422</definedName>
+    <definedName name="A1829284C_Data">Data1!$U$11:$U$422</definedName>
+    <definedName name="A1829284C_Latest">Data1!$U$422</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$422</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$422</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1061,10 +1061,10 @@
         <v>32143</v>
       </c>
       <c r="G12" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -1093,10 +1093,10 @@
         <v>32143</v>
       </c>
       <c r="G13" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -1125,10 +1125,10 @@
         <v>32143</v>
       </c>
       <c r="G14" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -1157,10 +1157,10 @@
         <v>32143</v>
       </c>
       <c r="G15" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -1189,10 +1189,10 @@
         <v>32143</v>
       </c>
       <c r="G16" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -1221,10 +1221,10 @@
         <v>32143</v>
       </c>
       <c r="G17" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -1253,10 +1253,10 @@
         <v>32143</v>
       </c>
       <c r="G18" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -1285,10 +1285,10 @@
         <v>32143</v>
       </c>
       <c r="G19" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
@@ -1317,10 +1317,10 @@
         <v>32143</v>
       </c>
       <c r="G20" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>29</v>
@@ -1349,10 +1349,10 @@
         <v>32143</v>
       </c>
       <c r="G21" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>29</v>
@@ -1381,10 +1381,10 @@
         <v>32143</v>
       </c>
       <c r="G22" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>29</v>
@@ -1413,10 +1413,10 @@
         <v>32143</v>
       </c>
       <c r="G23" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>29</v>
@@ -1445,10 +1445,10 @@
         <v>32143</v>
       </c>
       <c r="G24" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>29</v>
@@ -1477,10 +1477,10 @@
         <v>32143</v>
       </c>
       <c r="G25" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>29</v>
@@ -1509,10 +1509,10 @@
         <v>32143</v>
       </c>
       <c r="G26" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>29</v>
@@ -1541,10 +1541,10 @@
         <v>32143</v>
       </c>
       <c r="G27" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>29</v>
@@ -1573,10 +1573,10 @@
         <v>32143</v>
       </c>
       <c r="G28" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>29</v>
@@ -1605,10 +1605,10 @@
         <v>32143</v>
       </c>
       <c r="G29" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>29</v>
@@ -1637,10 +1637,10 @@
         <v>32143</v>
       </c>
       <c r="G30" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>29</v>
@@ -1669,10 +1669,10 @@
         <v>32143</v>
       </c>
       <c r="G31" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>29</v>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U419"/>
+  <dimension ref="A1:U422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2198,64 +2198,64 @@
         <v>26</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2263,64 +2263,64 @@
         <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="R9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="S9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -28600,19 +28600,19 @@
         <v>2010</v>
       </c>
       <c r="F414" s="8">
-        <v>17146</v>
+        <v>17110</v>
       </c>
       <c r="G414" s="8">
         <v>5245</v>
       </c>
       <c r="H414" s="8">
-        <v>7129</v>
+        <v>7140</v>
       </c>
       <c r="I414" s="8">
         <v>4</v>
       </c>
       <c r="J414" s="8">
-        <v>5082</v>
+        <v>5076</v>
       </c>
       <c r="K414" s="8">
         <v>821</v>
@@ -28645,7 +28645,7 @@
         <v>1324</v>
       </c>
       <c r="U414" s="8">
-        <v>42348</v>
+        <v>42316</v>
       </c>
     </row>
     <row r="415" spans="1:21" x14ac:dyDescent="0.2">
@@ -28665,22 +28665,22 @@
         <v>2036</v>
       </c>
       <c r="F415" s="8">
-        <v>13686</v>
+        <v>13568</v>
       </c>
       <c r="G415" s="8">
-        <v>3974</v>
+        <v>3982</v>
       </c>
       <c r="H415" s="8">
-        <v>7577</v>
+        <v>7576</v>
       </c>
       <c r="I415" s="8">
         <v>79</v>
       </c>
       <c r="J415" s="8">
-        <v>5482</v>
+        <v>5485</v>
       </c>
       <c r="K415" s="8">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L415" s="8">
         <v>439</v>
@@ -28710,7 +28710,7 @@
         <v>1306</v>
       </c>
       <c r="U415" s="8">
-        <v>38096</v>
+        <v>37985</v>
       </c>
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.2">
@@ -28730,22 +28730,22 @@
         <v>2000</v>
       </c>
       <c r="F416" s="8">
-        <v>11270</v>
+        <v>11207</v>
       </c>
       <c r="G416" s="8">
-        <v>4479</v>
+        <v>4485</v>
       </c>
       <c r="H416" s="8">
-        <v>9074</v>
+        <v>9091</v>
       </c>
       <c r="I416" s="8">
         <v>0</v>
       </c>
       <c r="J416" s="8">
-        <v>6199</v>
+        <v>6205</v>
       </c>
       <c r="K416" s="8">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L416" s="8">
         <v>432</v>
@@ -28772,10 +28772,10 @@
         <v>345</v>
       </c>
       <c r="T416" s="8">
-        <v>1319</v>
+        <v>1268</v>
       </c>
       <c r="U416" s="8">
-        <v>38228</v>
+        <v>38145</v>
       </c>
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.2">
@@ -28792,22 +28792,22 @@
         <v>283</v>
       </c>
       <c r="E417" s="8">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F417" s="8">
-        <v>10517</v>
+        <v>10692</v>
       </c>
       <c r="G417" s="8">
-        <v>4875</v>
+        <v>4883</v>
       </c>
       <c r="H417" s="8">
-        <v>9721</v>
+        <v>9747</v>
       </c>
       <c r="I417" s="8">
         <v>1</v>
       </c>
       <c r="J417" s="8">
-        <v>6763</v>
+        <v>6845</v>
       </c>
       <c r="K417" s="8">
         <v>861</v>
@@ -28837,10 +28837,10 @@
         <v>369</v>
       </c>
       <c r="T417" s="8">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="U417" s="8">
-        <v>40189</v>
+        <v>40466</v>
       </c>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.2">
@@ -28860,25 +28860,25 @@
         <v>2151</v>
       </c>
       <c r="F418" s="8">
-        <v>12948</v>
+        <v>13470</v>
       </c>
       <c r="G418" s="8">
-        <v>5172</v>
+        <v>5173</v>
       </c>
       <c r="H418" s="8">
-        <v>9148</v>
+        <v>9619</v>
       </c>
       <c r="I418" s="8">
         <v>0</v>
       </c>
       <c r="J418" s="8">
-        <v>6724</v>
+        <v>6768</v>
       </c>
       <c r="K418" s="8">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="L418" s="8">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M418" s="8">
         <v>26</v>
@@ -28896,16 +28896,16 @@
         <v>123</v>
       </c>
       <c r="R418" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S418" s="8">
         <v>354</v>
       </c>
       <c r="T418" s="8">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="U418" s="8">
-        <v>42093</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="419" spans="1:21" x14ac:dyDescent="0.2">
@@ -28913,64 +28913,259 @@
         <v>44562</v>
       </c>
       <c r="B419" s="8">
-        <v>2307</v>
+        <v>2345</v>
       </c>
       <c r="C419" s="8">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="D419" s="8">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="E419" s="8">
-        <v>1618</v>
+        <v>1513</v>
       </c>
       <c r="F419" s="8">
-        <v>12843</v>
+        <v>12770</v>
       </c>
       <c r="G419" s="8">
-        <v>4700</v>
+        <v>4610</v>
       </c>
       <c r="H419" s="8">
-        <v>8621</v>
+        <v>10622</v>
       </c>
       <c r="I419" s="8">
         <v>1</v>
       </c>
       <c r="J419" s="8">
-        <v>6492</v>
+        <v>6500</v>
       </c>
       <c r="K419" s="8">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="L419" s="8">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="M419" s="8">
+        <v>22</v>
+      </c>
+      <c r="N419" s="8">
         <v>23</v>
       </c>
-      <c r="N419" s="8">
-        <v>25</v>
-      </c>
       <c r="O419" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P419" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q419" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R419" s="8">
+        <v>131</v>
+      </c>
+      <c r="S419" s="8">
+        <v>310</v>
+      </c>
+      <c r="T419" s="8">
+        <v>1218</v>
+      </c>
+      <c r="U419" s="8">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B420" s="8">
+        <v>2308</v>
+      </c>
+      <c r="C420" s="8">
+        <v>512</v>
+      </c>
+      <c r="D420" s="8">
+        <v>262</v>
+      </c>
+      <c r="E420" s="8">
+        <v>1720</v>
+      </c>
+      <c r="F420" s="8">
+        <v>12375</v>
+      </c>
+      <c r="G420" s="8">
+        <v>4883</v>
+      </c>
+      <c r="H420" s="8">
+        <v>9542</v>
+      </c>
+      <c r="I420" s="8">
+        <v>0</v>
+      </c>
+      <c r="J420" s="8">
+        <v>6217</v>
+      </c>
+      <c r="K420" s="8">
+        <v>755</v>
+      </c>
+      <c r="L420" s="8">
+        <v>426</v>
+      </c>
+      <c r="M420" s="8">
+        <v>18</v>
+      </c>
+      <c r="N420" s="8">
+        <v>66</v>
+      </c>
+      <c r="O420" s="8">
+        <v>122</v>
+      </c>
+      <c r="P420" s="8">
+        <v>229</v>
+      </c>
+      <c r="Q420" s="8">
+        <v>135</v>
+      </c>
+      <c r="R420" s="8">
+        <v>146</v>
+      </c>
+      <c r="S420" s="8">
+        <v>308</v>
+      </c>
+      <c r="T420" s="8">
+        <v>1077</v>
+      </c>
+      <c r="U420" s="8">
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B421" s="8">
+        <v>2490</v>
+      </c>
+      <c r="C421" s="8">
+        <v>450</v>
+      </c>
+      <c r="D421" s="8">
+        <v>297</v>
+      </c>
+      <c r="E421" s="8">
+        <v>2094</v>
+      </c>
+      <c r="F421" s="8">
+        <v>14675</v>
+      </c>
+      <c r="G421" s="8">
+        <v>4699</v>
+      </c>
+      <c r="H421" s="8">
+        <v>9351</v>
+      </c>
+      <c r="I421" s="8">
+        <v>1</v>
+      </c>
+      <c r="J421" s="8">
+        <v>6629</v>
+      </c>
+      <c r="K421" s="8">
+        <v>876</v>
+      </c>
+      <c r="L421" s="8">
+        <v>522</v>
+      </c>
+      <c r="M421" s="8">
+        <v>31</v>
+      </c>
+      <c r="N421" s="8">
+        <v>27</v>
+      </c>
+      <c r="O421" s="8">
+        <v>28</v>
+      </c>
+      <c r="P421" s="8">
+        <v>282</v>
+      </c>
+      <c r="Q421" s="8">
         <v>136</v>
       </c>
-      <c r="S419" s="8">
-        <v>317</v>
-      </c>
-      <c r="T419" s="8">
-        <v>1214</v>
-      </c>
-      <c r="U419" s="8">
-        <v>40779</v>
+      <c r="R421" s="8">
+        <v>166</v>
+      </c>
+      <c r="S421" s="8">
+        <v>361</v>
+      </c>
+      <c r="T421" s="8">
+        <v>1433</v>
+      </c>
+      <c r="U421" s="8">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B422" s="8">
+        <v>2423</v>
+      </c>
+      <c r="C422" s="8">
+        <v>513</v>
+      </c>
+      <c r="D422" s="8">
+        <v>292</v>
+      </c>
+      <c r="E422" s="8">
+        <v>2041</v>
+      </c>
+      <c r="F422" s="8">
+        <v>14677</v>
+      </c>
+      <c r="G422" s="8">
+        <v>4683</v>
+      </c>
+      <c r="H422" s="8">
+        <v>10057</v>
+      </c>
+      <c r="I422" s="8">
+        <v>20</v>
+      </c>
+      <c r="J422" s="8">
+        <v>6603</v>
+      </c>
+      <c r="K422" s="8">
+        <v>793</v>
+      </c>
+      <c r="L422" s="8">
+        <v>467</v>
+      </c>
+      <c r="M422" s="8">
+        <v>28</v>
+      </c>
+      <c r="N422" s="8">
+        <v>63</v>
+      </c>
+      <c r="O422" s="8">
+        <v>57</v>
+      </c>
+      <c r="P422" s="8">
+        <v>289</v>
+      </c>
+      <c r="Q422" s="8">
+        <v>113</v>
+      </c>
+      <c r="R422" s="8">
+        <v>170</v>
+      </c>
+      <c r="S422" s="8">
+        <v>312</v>
+      </c>
+      <c r="T422" s="8">
+        <v>1461</v>
+      </c>
+      <c r="U422" s="8">
+        <v>45061</v>
       </c>
     </row>
   </sheetData>
